--- a/pesantren/laporan tahfidz/pekan ke 2, september 2023.xlsx
+++ b/pesantren/laporan tahfidz/pekan ke 2, september 2023.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA3ADC8-01AF-401A-8455-4C69064C2A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A4980-C51F-47F4-81F6-DE5497230F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ziyadah" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
